--- a/BDD/BDD_QuartierMalFrequente.xlsx
+++ b/BDD/BDD_QuartierMalFrequente.xlsx
@@ -1,44 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moi\Documents\GitHub\WDPII\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlan\Documents\GitHub\WDPII\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB6A324-7FBD-4368-8B7F-5BA1C30F011F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="5660" yWindow="340" windowWidth="13330" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Volume</t>
   </si>
@@ -63,11 +50,17 @@
   <si>
     <t>Toxicité</t>
   </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,631 +131,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Quartier mal fréquenté"/>
-      <sheetName val="Quartier aisé"/>
-      <sheetName val="Chantier"/>
-      <sheetName val="Déménagement"/>
-      <sheetName val="Espace verts"/>
-      <sheetName val="Discothèque"/>
-      <sheetName val="Festival"/>
-      <sheetName val="Groupe scolaire"/>
-      <sheetName val="Groupe scolaire + espace vert"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>44927</v>
-          </cell>
-          <cell r="B2">
-            <v>2</v>
-          </cell>
-          <cell r="C2">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>44934</v>
-          </cell>
-          <cell r="B3">
-            <v>3</v>
-          </cell>
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>44941</v>
-          </cell>
-          <cell r="B4">
-            <v>3</v>
-          </cell>
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>44948</v>
-          </cell>
-          <cell r="B5">
-            <v>2</v>
-          </cell>
-          <cell r="C5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>44955</v>
-          </cell>
-          <cell r="B6">
-            <v>3</v>
-          </cell>
-          <cell r="C6">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>44962</v>
-          </cell>
-          <cell r="B7">
-            <v>1</v>
-          </cell>
-          <cell r="C7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>44969</v>
-          </cell>
-          <cell r="B8">
-            <v>2</v>
-          </cell>
-          <cell r="C8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>44976</v>
-          </cell>
-          <cell r="B9">
-            <v>3</v>
-          </cell>
-          <cell r="C9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>44983</v>
-          </cell>
-          <cell r="B10">
-            <v>3</v>
-          </cell>
-          <cell r="C10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>44990</v>
-          </cell>
-          <cell r="B11">
-            <v>3</v>
-          </cell>
-          <cell r="C11">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>44997</v>
-          </cell>
-          <cell r="B12">
-            <v>3</v>
-          </cell>
-          <cell r="C12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>45004</v>
-          </cell>
-          <cell r="B13">
-            <v>3</v>
-          </cell>
-          <cell r="C13">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>45011</v>
-          </cell>
-          <cell r="B14">
-            <v>2</v>
-          </cell>
-          <cell r="C14">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>45018</v>
-          </cell>
-          <cell r="B15">
-            <v>2</v>
-          </cell>
-          <cell r="C15">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>45025</v>
-          </cell>
-          <cell r="B16">
-            <v>1</v>
-          </cell>
-          <cell r="C16">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>45032</v>
-          </cell>
-          <cell r="B17">
-            <v>2</v>
-          </cell>
-          <cell r="C17">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>45039</v>
-          </cell>
-          <cell r="B18">
-            <v>2</v>
-          </cell>
-          <cell r="C18">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>45046</v>
-          </cell>
-          <cell r="B19">
-            <v>3</v>
-          </cell>
-          <cell r="C19">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>45053</v>
-          </cell>
-          <cell r="B20">
-            <v>3</v>
-          </cell>
-          <cell r="C20">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>45060</v>
-          </cell>
-          <cell r="B21">
-            <v>3</v>
-          </cell>
-          <cell r="C21">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>45067</v>
-          </cell>
-          <cell r="B22">
-            <v>2</v>
-          </cell>
-          <cell r="C22">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>45074</v>
-          </cell>
-          <cell r="B23">
-            <v>2</v>
-          </cell>
-          <cell r="C23">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>45081</v>
-          </cell>
-          <cell r="B24">
-            <v>3</v>
-          </cell>
-          <cell r="C24">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>45088</v>
-          </cell>
-          <cell r="B25">
-            <v>3</v>
-          </cell>
-          <cell r="C25">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>45095</v>
-          </cell>
-          <cell r="B26">
-            <v>2</v>
-          </cell>
-          <cell r="C26">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>45102</v>
-          </cell>
-          <cell r="B27">
-            <v>2</v>
-          </cell>
-          <cell r="C27">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>45109</v>
-          </cell>
-          <cell r="B28">
-            <v>3</v>
-          </cell>
-          <cell r="C28">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>45116</v>
-          </cell>
-          <cell r="B29">
-            <v>3</v>
-          </cell>
-          <cell r="C29">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>45123</v>
-          </cell>
-          <cell r="B30">
-            <v>1</v>
-          </cell>
-          <cell r="C30">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>45130</v>
-          </cell>
-          <cell r="B31">
-            <v>1</v>
-          </cell>
-          <cell r="C31">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>45137</v>
-          </cell>
-          <cell r="B32">
-            <v>2</v>
-          </cell>
-          <cell r="C32">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>45144</v>
-          </cell>
-          <cell r="B33">
-            <v>3</v>
-          </cell>
-          <cell r="C33">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>45151</v>
-          </cell>
-          <cell r="B34">
-            <v>3</v>
-          </cell>
-          <cell r="C34">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>45158</v>
-          </cell>
-          <cell r="B35">
-            <v>3</v>
-          </cell>
-          <cell r="C35">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>45165</v>
-          </cell>
-          <cell r="B36">
-            <v>2</v>
-          </cell>
-          <cell r="C36">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>45172</v>
-          </cell>
-          <cell r="B37">
-            <v>2</v>
-          </cell>
-          <cell r="C37">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>45179</v>
-          </cell>
-          <cell r="B38">
-            <v>3</v>
-          </cell>
-          <cell r="C38">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>45186</v>
-          </cell>
-          <cell r="B39">
-            <v>3</v>
-          </cell>
-          <cell r="C39">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>45193</v>
-          </cell>
-          <cell r="B40">
-            <v>3</v>
-          </cell>
-          <cell r="C40">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>45200</v>
-          </cell>
-          <cell r="B41">
-            <v>3</v>
-          </cell>
-          <cell r="C41">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>45207</v>
-          </cell>
-          <cell r="B42">
-            <v>3</v>
-          </cell>
-          <cell r="C42">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>45214</v>
-          </cell>
-          <cell r="B43">
-            <v>3</v>
-          </cell>
-          <cell r="C43">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>45221</v>
-          </cell>
-          <cell r="B44">
-            <v>3</v>
-          </cell>
-          <cell r="C44">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>45228</v>
-          </cell>
-          <cell r="B45">
-            <v>3</v>
-          </cell>
-          <cell r="C45">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>45235</v>
-          </cell>
-          <cell r="B46">
-            <v>2</v>
-          </cell>
-          <cell r="C46">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>45242</v>
-          </cell>
-          <cell r="B47">
-            <v>2</v>
-          </cell>
-          <cell r="C47">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>45249</v>
-          </cell>
-          <cell r="B48">
-            <v>3</v>
-          </cell>
-          <cell r="C48">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>45256</v>
-          </cell>
-          <cell r="B49">
-            <v>3</v>
-          </cell>
-          <cell r="C49">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>45263</v>
-          </cell>
-          <cell r="B50">
-            <v>1</v>
-          </cell>
-          <cell r="C50">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>45270</v>
-          </cell>
-          <cell r="B51">
-            <v>1</v>
-          </cell>
-          <cell r="C51">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>45277</v>
-          </cell>
-          <cell r="B52">
-            <v>1</v>
-          </cell>
-          <cell r="C52">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>45284</v>
-          </cell>
-          <cell r="B53">
-            <v>2</v>
-          </cell>
-          <cell r="C53">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>45291</v>
-          </cell>
-          <cell r="B54">
-            <v>2</v>
-          </cell>
-          <cell r="C54">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1061,16 +429,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J106"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,14 +451,18 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>300</v>
       </c>
@@ -1103,14 +475,18 @@
       <c r="D2" s="1">
         <v>201.2</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1">
+        <v>45.662897999999998</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.2</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>252</v>
       </c>
@@ -1130,7 +506,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>198</v>
       </c>
@@ -1150,7 +526,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>159</v>
       </c>
@@ -1170,7 +546,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>143</v>
       </c>
@@ -1190,7 +566,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>134</v>
       </c>
@@ -1212,7 +588,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>112</v>
       </c>
@@ -1234,7 +610,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>120</v>
       </c>
@@ -1256,7 +632,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>125</v>
       </c>
@@ -1278,7 +654,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>130</v>
       </c>
@@ -1298,7 +674,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>138</v>
       </c>
@@ -1318,7 +694,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>142</v>
       </c>
@@ -1338,7 +714,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>146</v>
       </c>
@@ -1358,7 +734,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>150</v>
       </c>
@@ -1378,7 +754,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>163</v>
       </c>
@@ -1398,7 +774,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>168</v>
       </c>
@@ -1418,7 +794,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>173</v>
       </c>
@@ -1438,7 +814,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>178</v>
       </c>
@@ -1458,7 +834,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>176</v>
       </c>
@@ -1478,7 +854,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>177</v>
       </c>
@@ -1498,7 +874,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>183</v>
       </c>
@@ -1518,7 +894,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>194</v>
       </c>
@@ -1538,7 +914,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>200</v>
       </c>
@@ -1558,7 +934,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>230</v>
       </c>
@@ -1578,7 +954,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>240</v>
       </c>
@@ -1598,7 +974,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>270</v>
       </c>
@@ -1618,7 +994,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>311</v>
       </c>
@@ -1638,7 +1014,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>434</v>
       </c>
@@ -1658,7 +1034,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>509</v>
       </c>
@@ -1678,7 +1054,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>676</v>
       </c>
@@ -1698,7 +1074,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>783</v>
       </c>
@@ -1718,7 +1094,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>602</v>
       </c>
@@ -1738,7 +1114,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>507</v>
       </c>
@@ -1758,7 +1134,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>412</v>
       </c>
@@ -1778,7 +1154,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>385</v>
       </c>
@@ -1798,7 +1174,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>352</v>
       </c>
@@ -1818,7 +1194,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>337</v>
       </c>
@@ -1838,7 +1214,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>336</v>
       </c>
@@ -1858,7 +1234,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>345</v>
       </c>
@@ -1878,7 +1254,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>358</v>
       </c>
@@ -1898,7 +1274,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>368</v>
       </c>
@@ -1918,7 +1294,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>374</v>
       </c>
@@ -1938,7 +1314,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>389</v>
       </c>
@@ -1958,7 +1334,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>399</v>
       </c>
@@ -1978,7 +1354,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>410</v>
       </c>
@@ -1998,7 +1374,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>512</v>
       </c>
@@ -2018,7 +1394,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>620</v>
       </c>
@@ -2038,7 +1414,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>723</v>
       </c>
@@ -2058,7 +1434,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>636</v>
       </c>
@@ -2078,7 +1454,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>644</v>
       </c>
@@ -2098,7 +1474,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>753</v>
       </c>
@@ -2118,7 +1494,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>870</v>
       </c>
@@ -2138,7 +1514,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>985</v>
       </c>
@@ -2158,7 +1534,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>880</v>
       </c>
@@ -2180,7 +1556,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>740</v>
       </c>
@@ -2200,7 +1576,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>700</v>
       </c>
@@ -2220,7 +1596,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>590</v>
       </c>
@@ -2240,7 +1616,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>550</v>
       </c>
@@ -2260,7 +1636,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>520</v>
       </c>
@@ -2280,7 +1656,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>513</v>
       </c>
@@ -2300,7 +1676,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>522</v>
       </c>
@@ -2320,7 +1696,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>524</v>
       </c>
@@ -2340,7 +1716,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>528</v>
       </c>
@@ -2360,7 +1736,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>538</v>
       </c>
@@ -2380,7 +1756,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>548</v>
       </c>
@@ -2400,7 +1776,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>553</v>
       </c>
@@ -2420,7 +1796,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>564</v>
       </c>
@@ -2440,7 +1816,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>573</v>
       </c>
@@ -2460,7 +1836,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>630</v>
       </c>
@@ -2480,7 +1856,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>643</v>
       </c>
@@ -2498,7 +1874,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>650</v>
       </c>
@@ -2516,7 +1892,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>657</v>
       </c>
@@ -2534,7 +1910,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>680</v>
       </c>
@@ -2552,7 +1928,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>687</v>
       </c>
@@ -2570,7 +1946,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>709</v>
       </c>
@@ -2588,7 +1964,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>730</v>
       </c>
@@ -2606,7 +1982,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>746</v>
       </c>
@@ -2624,7 +2000,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>753</v>
       </c>
@@ -2642,7 +2018,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>769</v>
       </c>
@@ -2660,7 +2036,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>875</v>
       </c>
@@ -2678,7 +2054,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>972</v>
       </c>
@@ -2696,7 +2072,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>1020</v>
       </c>
@@ -2714,7 +2090,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>1045</v>
       </c>
@@ -2732,7 +2108,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>1102</v>
       </c>
@@ -2750,7 +2126,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>1200</v>
       </c>
@@ -2768,7 +2144,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>1304</v>
       </c>
@@ -2786,7 +2162,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>1200</v>
       </c>
@@ -2804,7 +2180,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>1000</v>
       </c>
@@ -2822,7 +2198,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>980</v>
       </c>
@@ -2840,7 +2216,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>963</v>
       </c>
@@ -2858,7 +2234,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>933</v>
       </c>
@@ -2876,7 +2252,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>940</v>
       </c>
@@ -2894,7 +2270,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>950</v>
       </c>
@@ -2912,7 +2288,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>980</v>
       </c>
@@ -2930,7 +2306,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>945</v>
       </c>
@@ -2948,7 +2324,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>999</v>
       </c>
@@ -2966,7 +2342,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>1012</v>
       </c>
@@ -2984,7 +2360,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>1022</v>
       </c>
@@ -3002,7 +2378,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>1030</v>
       </c>
@@ -3020,7 +2396,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>1145</v>
       </c>
@@ -3038,7 +2414,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>1265</v>
       </c>
@@ -3056,7 +2432,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>1350</v>
       </c>
@@ -3074,7 +2450,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>1434</v>
       </c>
@@ -3092,7 +2468,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>1560</v>
       </c>
@@ -3110,7 +2486,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>1620</v>
       </c>
